--- a/AtanasPrimov/lesson 8/Bug 1.xlsx
+++ b/AtanasPrimov/lesson 8/Bug 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Priority</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Attachment</t>
-  </si>
-  <si>
-    <t>Sometimes one picture is more descriptive than 10 lines of text. Here we can attach files if needed</t>
   </si>
   <si>
     <t>Component</t>
@@ -237,6 +234,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -251,12 +254,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,6 +301,44 @@
         <a:xfrm>
           <a:off x="4752975" y="28575"/>
           <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3190876</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6734553</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829301" y="2581275"/>
+          <a:ext cx="3543677" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,25 +652,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,115 +702,144 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10" t="s">
-        <v>32</v>
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A15" s="10"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A16" s="10"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="10"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="10"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B3"/>
-    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A9:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
